--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/Scenarios.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/Scenarios.xlsx
@@ -509,1579 +509,1579 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9783.9465534337</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13646.2208558363</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>22933.1022847508</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>8194.76217105516</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>11102.5652883084</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>18658.3720188732</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>7216.36751571179</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>9737.94320272476</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>16365.0617903981</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>9402.20297403672</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>12909.3249296211</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>21694.7147613742</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>7942.81140865316</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>10616.2139770064</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>17841.0362534447</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>7002.59111124949</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>9325.28148404427</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>15671.5647773073</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>10165.6901328307</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>14383.1167820514</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>24171.4898081273</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>8446.71293345717</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>11588.9165996104</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>19475.7077843017</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>7430.1439201741</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>10150.6049214053</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>17058.558803489</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3375.93044016243</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4708.600167509</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7913.01931869994</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2827.58566924587</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>3830.91709628532</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>6438.03251769427</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>2489.99262522963</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3360.05707953442</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>5646.73058582428</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3244.21061084973</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>4454.33575846351</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>7485.71627549014</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>2740.65058189949</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>3663.1025863153</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>6156.0125091758</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>2416.22952081452</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>3217.66901046895</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>5407.44088162679</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>3507.65026947512</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>4962.86457655449</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>8340.32236190974</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>2914.52075659225</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>3998.73160625534</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>6720.05252621274</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>2563.75572964474</v>
+        <v>3</v>
       </c>
       <c r="Z4" t="n">
-        <v>3502.4451485999</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>5886.02029002176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>546.041465822591</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1347.16511820635</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2412.68520237153</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>420.746473872428</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1038.04382759717</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>1859.06905427549</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>366.142327290169</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>903.327315776539</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1617.80053403834</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>501.859687467651</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1238.16213146351</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>2217.46793495973</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>391.586500158167</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>966.101856346901</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1730.2256577837</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>341.400531411402</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>842.28564320055</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>1508.47886428773</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>590.223244177531</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1456.16810494919</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>2607.90246978334</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>449.906447586688</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>1109.98579884745</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1987.91245076728</v>
+        <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>390.884123168935</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
-        <v>964.368988352528</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="n">
-        <v>1727.12220378895</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>382.229026075814</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>943.015582744444</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1688.87964166007</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>294.522531710699</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>726.630679318022</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1301.34833799284</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>256.299629103118</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>632.329121043577</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1132.46037382684</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>351.301781227356</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>866.713492024458</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1552.22755447181</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>274.110550110717</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>676.271299442831</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1211.15796044859</v>
+        <v>5</v>
       </c>
       <c r="P6" t="n">
-        <v>238.980371987982</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>589.599950240385</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>1055.93520500141</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>413.156270924271</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>1019.31767346443</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
-        <v>1825.53172884834</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>314.934513310682</v>
+        <v>5</v>
       </c>
       <c r="W6" t="n">
-        <v>776.990059193213</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>1391.5387155371</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
-        <v>273.618886218255</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>675.05829184677</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1208.98554265226</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1316.56664537225</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3248.16478500864</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5817.25209905136</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1014.46649811463</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>2502.83900653985</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>4482.42205308646</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>882.809833577407</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>2178.02252803899</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>3900.69684318133</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>1210.039468672</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>2985.34647252869</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>5346.56157651401</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>944.15856149247</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>2329.37892030308</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>4171.76630821181</v>
+        <v>6</v>
       </c>
       <c r="P7" t="n">
-        <v>823.15461462527</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>2030.84427305022</v>
+        <v>6</v>
       </c>
       <c r="R7" t="n">
-        <v>3637.11015056041</v>
+        <v>6</v>
       </c>
       <c r="S7" t="n">
-        <v>1423.09382207249</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>3510.98309748859</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>6287.94262158871</v>
+        <v>6</v>
       </c>
       <c r="V7" t="n">
-        <v>1084.77443473679</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>2676.29909277662</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>4793.07779796111</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
-        <v>942.465052529543</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>2325.20078302776</v>
+        <v>6</v>
       </c>
       <c r="AA7" t="n">
-        <v>4164.28353580224</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2063.06860232148</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2877.47788014439</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>4835.73402809441</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.9690200947</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>2341.11600328548</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>3934.35320525761</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>1521.66215986255</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>2053.36821527104</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>3450.77980244817</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1982.57315107484</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>2722.09407461659</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>4574.60439057731</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1674.84202227191</v>
+        <v>7</v>
       </c>
       <c r="N8" t="n">
-        <v>2238.56269163713</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>3762.00764449632</v>
+        <v>7</v>
       </c>
       <c r="P8" t="n">
-        <v>1476.58470716443</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1966.35328417547</v>
+        <v>7</v>
       </c>
       <c r="R8" t="n">
-        <v>3304.54720543859</v>
+        <v>7</v>
       </c>
       <c r="S8" t="n">
-        <v>2143.56405356813</v>
+        <v>7</v>
       </c>
       <c r="T8" t="n">
-        <v>3032.86168567219</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
-        <v>5096.86366561151</v>
+        <v>7</v>
       </c>
       <c r="V8" t="n">
-        <v>1781.09601791749</v>
+        <v>7</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.66931493382</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>4106.69876601889</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>1566.73961256067</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
-        <v>2140.3831463666</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>3597.01239945774</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>655.249758987109</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1616.59814184762</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2895.22224284584</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>504.895768646913</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>1245.65259311661</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>2230.88286513059</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>439.370792748202</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>1083.99277893185</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>1941.36064084601</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>602.231624961181</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>1485.79455775621</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>2660.96152195167</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>469.903800189801</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.32222761628</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>2076.27078934044</v>
+        <v>8</v>
       </c>
       <c r="P9" t="n">
-        <v>409.680637693683</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1010.74277184066</v>
+        <v>8</v>
       </c>
       <c r="R9" t="n">
-        <v>1810.17463714527</v>
+        <v>8</v>
       </c>
       <c r="S9" t="n">
-        <v>708.267893013037</v>
+        <v>8</v>
       </c>
       <c r="T9" t="n">
-        <v>1747.40172593902</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>3129.48296374</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
-        <v>539.887737104026</v>
+        <v>8</v>
       </c>
       <c r="W9" t="n">
-        <v>1331.98295861694</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>2385.49494092074</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>469.060947802722</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>1157.24278602303</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>2072.54664454674</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91.0069109704318</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>224.527519701058</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>402.114200395255</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>70.1244123120713</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>173.007304599529</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>309.844842379249</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>61.0237212150281</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>150.554552629423</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>269.633422339723</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>83.6432812446085</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>206.360355243918</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>369.577989159955</v>
+        <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>65.2644166930279</v>
+        <v>9</v>
       </c>
       <c r="N10" t="n">
-        <v>161.016976057817</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>288.37094296395</v>
+        <v>9</v>
       </c>
       <c r="P10" t="n">
-        <v>56.9000885685671</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.380940533425</v>
+        <v>9</v>
       </c>
       <c r="R10" t="n">
-        <v>251.413144047955</v>
+        <v>9</v>
       </c>
       <c r="S10" t="n">
-        <v>98.3705406962551</v>
+        <v>9</v>
       </c>
       <c r="T10" t="n">
-        <v>242.694684158198</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
-        <v>434.650411630556</v>
+        <v>9</v>
       </c>
       <c r="V10" t="n">
-        <v>74.9844079311147</v>
+        <v>9</v>
       </c>
       <c r="W10" t="n">
-        <v>184.997633141241</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>331.318741794547</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>65.1473538614892</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>160.728164725421</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
-        <v>287.853700631492</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>52305.9347978116</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>71510.1964879334</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>98589.1392276515</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>40213.5119055718</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>54978.0086897061</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>75796.6670401063</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>34982.9184257906</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>47826.9890409128</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>65937.7531173411</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>48017.2914150249</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>65646.9663945372</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>90505.6653121639</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>37383.0072729326</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>51108.2768280646</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>70461.5742558845</v>
+        <v>10</v>
       </c>
       <c r="P11" t="n">
-        <v>32581.2781314301</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>44543.5801886109</v>
+        <v>10</v>
       </c>
       <c r="R11" t="n">
-        <v>61411.0077246681</v>
+        <v>10</v>
       </c>
       <c r="S11" t="n">
-        <v>56594.5781805983</v>
+        <v>10</v>
       </c>
       <c r="T11" t="n">
-        <v>77373.4265813297</v>
+        <v>10</v>
       </c>
       <c r="U11" t="n">
-        <v>106672.613143139</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
-        <v>43044.016538211</v>
+        <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>58847.7405513476</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>81131.759824328</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>37384.5587201511</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>51110.3978932147</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>70464.4985100141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>36543.3111059203</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>49960.2840022921</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>68878.868151147</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>28094.993080755</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>38410.1437685419</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>52955.0077853564</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>24440.661970163</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>33414.1153683127</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>46067.1209702417</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>33547.069284312</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>45863.9641063415</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>63231.3846819746</v>
+        <v>11</v>
       </c>
       <c r="M12" t="n">
-        <v>26117.4734784935</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>35706.5726372144</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>49227.6686957026</v>
+        <v>11</v>
       </c>
       <c r="P12" t="n">
-        <v>22762.7665500623</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="n">
-        <v>31120.1762265803</v>
+        <v>11</v>
       </c>
       <c r="R12" t="n">
-        <v>42904.5302275051</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>39539.5529275286</v>
+        <v>11</v>
       </c>
       <c r="T12" t="n">
-        <v>54056.6038982428</v>
+        <v>11</v>
       </c>
       <c r="U12" t="n">
-        <v>74526.3516203194</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
-        <v>30072.5126830165</v>
+        <v>11</v>
       </c>
       <c r="W12" t="n">
-        <v>41113.7148998693</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>56682.3468750102</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>26118.5573902636</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>35708.054510045</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>49229.7117129783</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7026.94256323648</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15899.4448888195</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>21072.9581202869</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>5372.7401310349</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>12156.5794577939</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>16112.2033876902</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>4670.04587471125</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>10566.634968912</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>14004.9075756615</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>6432.24995331277</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>14553.8692999797</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>19289.5462949319</v>
+        <v>12</v>
       </c>
       <c r="M13" t="n">
-        <v>4980.24300848525</v>
+        <v>12</v>
       </c>
       <c r="N13" t="n">
-        <v>11268.4995691597</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>14935.1515829559</v>
+        <v>12</v>
       </c>
       <c r="P13" t="n">
-        <v>4337.01801315397</v>
+        <v>12</v>
       </c>
       <c r="Q13" t="n">
-        <v>9813.11263916169</v>
+        <v>12</v>
       </c>
       <c r="R13" t="n">
-        <v>13006.1969534627</v>
+        <v>12</v>
       </c>
       <c r="S13" t="n">
-        <v>7621.63517316019</v>
+        <v>12</v>
       </c>
       <c r="T13" t="n">
-        <v>17245.0204776593</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
-        <v>22856.369945642</v>
+        <v>12</v>
       </c>
       <c r="V13" t="n">
-        <v>5765.23725358455</v>
+        <v>12</v>
       </c>
       <c r="W13" t="n">
-        <v>13044.6593464282</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
-        <v>17289.2551924245</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>5003.07373626853</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>11320.1572986623</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>15003.6181978603</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8049.52002579702</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18213.1700778642</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>24139.5453094332</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>6154.59410532729</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>13925.6339311296</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>18456.8897015705</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>5349.64210274759</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>12104.3169233432</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>16042.9351706272</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>7368.28632711575</v>
+        <v>13</v>
       </c>
       <c r="K14" t="n">
-        <v>16671.7831160216</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>22096.6071363586</v>
+        <v>13</v>
       </c>
       <c r="M14" t="n">
-        <v>5704.97986419766</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
-        <v>12908.3185363135</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>17108.5505073413</v>
+        <v>13</v>
       </c>
       <c r="P14" t="n">
-        <v>4968.15123148608</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="n">
-        <v>11241.1402247113</v>
+        <v>13</v>
       </c>
       <c r="R14" t="n">
-        <v>14898.8897937054</v>
+        <v>13</v>
       </c>
       <c r="S14" t="n">
-        <v>8730.75372447828</v>
+        <v>13</v>
       </c>
       <c r="T14" t="n">
-        <v>19754.5570397068</v>
+        <v>13</v>
       </c>
       <c r="U14" t="n">
-        <v>26182.4834825078</v>
+        <v>13</v>
       </c>
       <c r="V14" t="n">
-        <v>6604.20834645693</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
-        <v>14942.9493259457</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>19805.2288957997</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>5731.1329740091</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>12967.493621975</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>17186.980547549</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6109.24484042575</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13823.0248473692</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>18320.8926941301</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>4671.07630795198</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>10568.9664689029</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>14007.9977213874</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>4060.15182390941</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>9186.66398416601</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>12175.9084519744</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>5592.21731015625</v>
+        <v>14</v>
       </c>
       <c r="K15" t="n">
-        <v>12653.1774137884</v>
+        <v>14</v>
       </c>
       <c r="L15" t="n">
-        <v>16770.389129549</v>
+        <v>14</v>
       </c>
       <c r="M15" t="n">
-        <v>4329.83813797412</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
-        <v>9796.86716273956</v>
+        <v>14</v>
       </c>
       <c r="O15" t="n">
-        <v>12984.6653687639</v>
+        <v>14</v>
       </c>
       <c r="P15" t="n">
-        <v>3770.61640695849</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="n">
-        <v>8531.54942136073</v>
+        <v>14</v>
       </c>
       <c r="R15" t="n">
-        <v>11307.626455809</v>
+        <v>14</v>
       </c>
       <c r="S15" t="n">
-        <v>6626.27237069524</v>
+        <v>14</v>
       </c>
       <c r="T15" t="n">
-        <v>14992.8722809501</v>
+        <v>14</v>
       </c>
       <c r="U15" t="n">
-        <v>19871.3962587111</v>
+        <v>14</v>
       </c>
       <c r="V15" t="n">
-        <v>5012.31447792985</v>
+        <v>14</v>
       </c>
       <c r="W15" t="n">
-        <v>11341.0657750663</v>
+        <v>14</v>
       </c>
       <c r="X15" t="n">
-        <v>15031.3300740109</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>4349.68724086033</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>9841.77854697129</v>
+        <v>14</v>
       </c>
       <c r="AA15" t="n">
-        <v>13044.1904481398</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19245.432244088</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43545.494583558</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>57714.7435085471</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>14714.8927469389</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>33294.5123955998</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>44128.198830465</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>12790.3495225301</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>28939.962937244</v>
+        <v>15</v>
       </c>
       <c r="I16" t="n">
-        <v>38356.7244796103</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>17616.6845736253</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>39860.2241275565</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>52830.3245540299</v>
+        <v>15</v>
       </c>
       <c r="M16" t="n">
-        <v>13639.9192844335</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>30862.2338946388</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>40904.4823204837</v>
+        <v>15</v>
       </c>
       <c r="P16" t="n">
-        <v>11878.250827071</v>
+        <v>15</v>
       </c>
       <c r="Q16" t="n">
-        <v>26876.2114818831</v>
+        <v>15</v>
       </c>
       <c r="R16" t="n">
-        <v>35621.4498650807</v>
+        <v>15</v>
       </c>
       <c r="S16" t="n">
-        <v>20874.1799145507</v>
+        <v>15</v>
       </c>
       <c r="T16" t="n">
-        <v>47230.7650395595</v>
+        <v>15</v>
       </c>
       <c r="U16" t="n">
-        <v>62599.1624630642</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
-        <v>15789.8662094442</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>35726.7908965608</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>47351.9153404463</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>13702.4482179892</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>31003.7143926048</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>41091.9990941399</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4981.78763811542</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11271.9945107303</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>14939.7837419945</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>3809.03218245011</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>8618.47051112256</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>11422.8307599296</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>3310.85341863857</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>7491.27106004953</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>9928.85238573018</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>4560.17720570682</v>
+        <v>16</v>
       </c>
       <c r="K17" t="n">
-        <v>10318.0416678961</v>
+        <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>13675.4246120786</v>
+        <v>16</v>
       </c>
       <c r="M17" t="n">
-        <v>3530.76929706044</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>7988.861634852</v>
+        <v>16</v>
       </c>
       <c r="O17" t="n">
-        <v>10588.3537341851</v>
+        <v>16</v>
       </c>
       <c r="P17" t="n">
-        <v>3074.75157648976</v>
+        <v>16</v>
       </c>
       <c r="Q17" t="n">
-        <v>6957.05746806239</v>
+        <v>16</v>
       </c>
       <c r="R17" t="n">
-        <v>9220.81127297729</v>
+        <v>16</v>
       </c>
       <c r="S17" t="n">
-        <v>5403.39807052402</v>
+        <v>16</v>
       </c>
       <c r="T17" t="n">
-        <v>12225.9473535644</v>
+        <v>16</v>
       </c>
       <c r="U17" t="n">
-        <v>16204.1428719103</v>
+        <v>16</v>
       </c>
       <c r="V17" t="n">
-        <v>4087.29506783979</v>
+        <v>16</v>
       </c>
       <c r="W17" t="n">
-        <v>9248.07938739312</v>
+        <v>16</v>
       </c>
       <c r="X17" t="n">
-        <v>12257.3077856741</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>3546.95526078739</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>8025.48465203667</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>10636.8934984831</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15863.060637157</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>35892.4035736411</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>47571.4166521403</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>12128.7603704333</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>27443.0245222587</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>36372.6979460917</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>10542.4543067176</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>23853.7841648946</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
-        <v>31615.5562808777</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>14520.564260277</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
-        <v>32854.8168898797</v>
+        <v>17</v>
       </c>
       <c r="L18" t="n">
-        <v>43545.4310016187</v>
+        <v>17</v>
       </c>
       <c r="M18" t="n">
-        <v>11242.7127616924</v>
+        <v>17</v>
       </c>
       <c r="N18" t="n">
-        <v>25438.2173109761</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>33715.5474167474</v>
+        <v>17</v>
       </c>
       <c r="P18" t="n">
-        <v>9790.65633566475</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="n">
-        <v>22152.7356219882</v>
+        <v>17</v>
       </c>
       <c r="R18" t="n">
-        <v>29361.0043165856</v>
+        <v>17</v>
       </c>
       <c r="S18" t="n">
-        <v>17205.557014037</v>
+        <v>17</v>
       </c>
       <c r="T18" t="n">
-        <v>38929.9902574026</v>
+        <v>17</v>
       </c>
       <c r="U18" t="n">
-        <v>51597.4023026619</v>
+        <v>17</v>
       </c>
       <c r="V18" t="n">
-        <v>13014.8079791741</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>29447.8317335412</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>39029.848475436</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>11294.2522777704</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>25554.832707801</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>33870.1082451698</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3356.15167199354</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>7593.76472301829</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>10064.6964156594</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>2566.08483870324</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>5806.12750222994</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>7695.38072247891</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>2230.46967150388</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>5046.75102992811</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>6688.91108091296</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>3072.1193806867</v>
+        <v>18</v>
       </c>
       <c r="K19" t="n">
-        <v>6951.10175521421</v>
+        <v>18</v>
       </c>
       <c r="L19" t="n">
-        <v>9212.91763340032</v>
+        <v>18</v>
       </c>
       <c r="M19" t="n">
-        <v>2378.62352644072</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>5381.96994347924</v>
+        <v>18</v>
       </c>
       <c r="O19" t="n">
-        <v>7133.20672618789</v>
+        <v>18</v>
       </c>
       <c r="P19" t="n">
-        <v>2071.41158837205</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="n">
-        <v>4686.85976795782</v>
+        <v>18</v>
       </c>
       <c r="R19" t="n">
-        <v>6211.91496284786</v>
+        <v>18</v>
       </c>
       <c r="S19" t="n">
-        <v>3640.18396330039</v>
+        <v>18</v>
       </c>
       <c r="T19" t="n">
-        <v>8236.42769082236</v>
+        <v>18</v>
       </c>
       <c r="U19" t="n">
-        <v>10916.4751979185</v>
+        <v>18</v>
       </c>
       <c r="V19" t="n">
-        <v>2753.54615096575</v>
+        <v>18</v>
       </c>
       <c r="W19" t="n">
-        <v>6230.28506098063</v>
+        <v>18</v>
       </c>
       <c r="X19" t="n">
-        <v>8257.55471876992</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>2389.52775463572</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>5406.64229189839</v>
+        <v>18</v>
       </c>
       <c r="AA19" t="n">
-        <v>7165.90719897807</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4772.02815861582</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>10797.3842155416</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>14310.7402160158</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>3648.65188003116</v>
+        <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>8255.58754223319</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>10941.8694647747</v>
+        <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>3171.44906416958</v>
+        <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>7175.84912067903</v>
+        <v>19</v>
       </c>
       <c r="I20" t="n">
-        <v>9510.79544317312</v>
+        <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>4368.1697444139</v>
+        <v>19</v>
       </c>
       <c r="K20" t="n">
-        <v>9883.5978081952</v>
+        <v>19</v>
       </c>
       <c r="L20" t="n">
-        <v>13099.6172599911</v>
+        <v>19</v>
       </c>
       <c r="M20" t="n">
-        <v>3382.10532665789</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
-        <v>7652.48851338455</v>
+        <v>19</v>
       </c>
       <c r="O20" t="n">
-        <v>10142.5283137984</v>
+        <v>19</v>
       </c>
       <c r="P20" t="n">
-        <v>2945.2883522165</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="n">
-        <v>6664.12873256503</v>
+        <v>19</v>
       </c>
       <c r="R20" t="n">
-        <v>8832.5665877993</v>
+        <v>19</v>
       </c>
       <c r="S20" t="n">
-        <v>5175.88657281774</v>
+        <v>19</v>
       </c>
       <c r="T20" t="n">
-        <v>11711.170622888</v>
+        <v>19</v>
       </c>
       <c r="U20" t="n">
-        <v>15521.8631720404</v>
+        <v>19</v>
       </c>
       <c r="V20" t="n">
-        <v>3915.19843340443</v>
+        <v>19</v>
       </c>
       <c r="W20" t="n">
-        <v>8858.68657108183</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
-        <v>11741.210615751</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>3397.60977612266</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="n">
-        <v>7687.56950879302</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>10189.0242985469</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
